--- a/Code/Results/Cases/Case_8_17/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_8_17/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.04661824743136</v>
+        <v>21.18012468835123</v>
       </c>
       <c r="C2">
-        <v>16.7189727605228</v>
+        <v>18.23466538812442</v>
       </c>
       <c r="D2">
-        <v>5.961953814668187</v>
+        <v>4.880215927664276</v>
       </c>
       <c r="E2">
-        <v>7.049793823079568</v>
+        <v>7.607877346881343</v>
       </c>
       <c r="F2">
-        <v>40.80886699841093</v>
+        <v>34.10181236279568</v>
       </c>
       <c r="G2">
-        <v>2.109539659837579</v>
+        <v>4.417464925413275</v>
       </c>
       <c r="H2">
-        <v>2.808185977612688</v>
+        <v>2.445659659937211</v>
       </c>
       <c r="I2">
-        <v>3.440075761080567</v>
+        <v>3.034036283021869</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>28.31404570732808</v>
+        <v>22.85442652884585</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>18.36159269562902</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>15.71970255983055</v>
       </c>
       <c r="N2">
-        <v>6.68431424447169</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>12.93332440537651</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>6.945357299203003</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>12.9450095459317</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.67675915791621</v>
+        <v>19.77327530792464</v>
       </c>
       <c r="C3">
-        <v>15.559745065616</v>
+        <v>17.01493013808818</v>
       </c>
       <c r="D3">
-        <v>5.893453253109715</v>
+        <v>4.844153337692362</v>
       </c>
       <c r="E3">
-        <v>6.743178791481299</v>
+        <v>7.40402982940698</v>
       </c>
       <c r="F3">
-        <v>38.91770137077309</v>
+        <v>32.69943338399396</v>
       </c>
       <c r="G3">
-        <v>2.11715475853621</v>
+        <v>5.292870726031119</v>
       </c>
       <c r="H3">
-        <v>3.115621003651454</v>
+        <v>2.685623946691104</v>
       </c>
       <c r="I3">
-        <v>3.725421032131228</v>
+        <v>3.242993976499944</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>27.36683799991238</v>
+        <v>22.34908750897236</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>18.14736268623903</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>15.17029429854102</v>
       </c>
       <c r="N3">
-        <v>6.450583287370621</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>12.29648182575956</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>6.738351446387403</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>12.28369476967528</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.79616721530873</v>
+        <v>18.85692348507067</v>
       </c>
       <c r="C4">
-        <v>14.81341723449973</v>
+        <v>16.22682691650141</v>
       </c>
       <c r="D4">
-        <v>5.848476374316082</v>
+        <v>4.819486402247383</v>
       </c>
       <c r="E4">
-        <v>6.549939362626341</v>
+        <v>7.275707420195353</v>
       </c>
       <c r="F4">
-        <v>37.71381547239929</v>
+        <v>31.80320498783193</v>
       </c>
       <c r="G4">
-        <v>2.121965000210774</v>
+        <v>5.847275517096393</v>
       </c>
       <c r="H4">
-        <v>3.309939833111864</v>
+        <v>2.837667240391765</v>
       </c>
       <c r="I4">
-        <v>3.90639061448249</v>
+        <v>3.376283468128214</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>26.76641796666697</v>
+        <v>22.02680570876195</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>18.00255619332341</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>14.83711163897295</v>
       </c>
       <c r="N4">
-        <v>6.302878620429824</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>11.89058669822873</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.608091488298013</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>11.86011656076232</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.42603401196834</v>
+        <v>18.46994422954486</v>
       </c>
       <c r="C5">
-        <v>14.50816581415539</v>
+        <v>15.90217504086639</v>
       </c>
       <c r="D5">
-        <v>5.824640480165252</v>
+        <v>4.806413909386549</v>
       </c>
       <c r="E5">
-        <v>6.469432873009291</v>
+        <v>7.222514234649823</v>
       </c>
       <c r="F5">
-        <v>37.17688126398055</v>
+        <v>31.40018783057894</v>
       </c>
       <c r="G5">
-        <v>2.12397587806809</v>
+        <v>6.079196159400662</v>
       </c>
       <c r="H5">
-        <v>3.391187320496384</v>
+        <v>2.901292621865488</v>
       </c>
       <c r="I5">
-        <v>3.98443542885039</v>
+        <v>3.435095813602434</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>26.48914107088615</v>
+        <v>21.87103728849092</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>17.92301520402771</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>14.68741940982525</v>
       </c>
       <c r="N5">
-        <v>6.241748864031528</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>11.72202031202078</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6.554315819984449</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>11.68357555323482</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.3639107903462</v>
+        <v>18.40453943371947</v>
       </c>
       <c r="C6">
-        <v>14.46632206296934</v>
+        <v>15.85547607858338</v>
       </c>
       <c r="D6">
-        <v>5.814812564517712</v>
+        <v>4.801311312964867</v>
       </c>
       <c r="E6">
-        <v>6.455428893814761</v>
+        <v>7.213525234752708</v>
       </c>
       <c r="F6">
-        <v>37.04298527686677</v>
+        <v>31.29697966477584</v>
       </c>
       <c r="G6">
-        <v>2.124331051183264</v>
+        <v>6.119978518387786</v>
       </c>
       <c r="H6">
-        <v>3.405524301219409</v>
+        <v>2.912490169631211</v>
       </c>
       <c r="I6">
-        <v>4.001065388277734</v>
+        <v>3.449080636679567</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>26.40849199867236</v>
+        <v>21.81873759880135</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>17.88863747037052</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>14.6439042097589</v>
       </c>
       <c r="N6">
-        <v>6.231640582860468</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>11.69434190375773</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>6.545416203692778</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>11.65441681568374</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.79122159726228</v>
+        <v>18.85026369760756</v>
       </c>
       <c r="C7">
-        <v>14.83425688726252</v>
+        <v>16.1912077733321</v>
       </c>
       <c r="D7">
-        <v>5.832299633464598</v>
+        <v>4.79823972343392</v>
       </c>
       <c r="E7">
-        <v>6.547356661886042</v>
+        <v>7.267869566050268</v>
       </c>
       <c r="F7">
-        <v>37.58796696117582</v>
+        <v>31.52673453003001</v>
       </c>
       <c r="G7">
-        <v>2.12204377907369</v>
+        <v>5.91380802574819</v>
       </c>
       <c r="H7">
-        <v>3.313078788322533</v>
+        <v>2.842775996495041</v>
       </c>
       <c r="I7">
-        <v>3.916994639342476</v>
+        <v>3.391052203995065</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>26.6698940612858</v>
+        <v>21.84639900763002</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>17.86013714220766</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>14.70648131562581</v>
       </c>
       <c r="N7">
-        <v>6.302342272393709</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>11.88971631213593</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>6.60348778838239</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>11.85718685603585</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.57746578640763</v>
+        <v>20.7027656339783</v>
       </c>
       <c r="C8">
-        <v>16.35651568522009</v>
+        <v>17.6870517369348</v>
       </c>
       <c r="D8">
-        <v>5.918292227484264</v>
+        <v>4.818481591940921</v>
       </c>
       <c r="E8">
-        <v>6.943156400464725</v>
+        <v>7.515703067619286</v>
       </c>
       <c r="F8">
-        <v>40.01738955106335</v>
+        <v>32.95644104965227</v>
       </c>
       <c r="G8">
-        <v>2.112204843973164</v>
+        <v>5.030223847905433</v>
       </c>
       <c r="H8">
-        <v>2.915687631045243</v>
+        <v>2.53813768782726</v>
       </c>
       <c r="I8">
-        <v>3.549758564805553</v>
+        <v>3.128869524711769</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>27.87335283060195</v>
+        <v>22.24964910030099</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>17.95578488129704</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>15.20779299439776</v>
       </c>
       <c r="N8">
-        <v>6.604998079723765</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>12.71856597859454</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>6.86196215204204</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>12.71661517239785</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.84704684417468</v>
+        <v>23.92510715549189</v>
       </c>
       <c r="C9">
-        <v>19.03298143220312</v>
+        <v>20.46868143038464</v>
       </c>
       <c r="D9">
-        <v>6.091346473856492</v>
+        <v>4.896688016173403</v>
       </c>
       <c r="E9">
-        <v>7.68484900470021</v>
+        <v>8.002304163888443</v>
       </c>
       <c r="F9">
-        <v>44.62217141161547</v>
+        <v>36.27314823693486</v>
       </c>
       <c r="G9">
-        <v>2.09383298861232</v>
+        <v>3.144123809096922</v>
       </c>
       <c r="H9">
-        <v>2.174856449917284</v>
+        <v>1.96455649843722</v>
       </c>
       <c r="I9">
-        <v>2.857728696363627</v>
+        <v>2.624705115930087</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>30.23300475154914</v>
+        <v>23.45589651705066</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>18.44135405727759</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>16.58645955620906</v>
       </c>
       <c r="N9">
-        <v>7.16356173125846</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>14.21859984125031</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>7.356692390807707</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>14.26229492371904</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.03245468884944</v>
+        <v>26.05672687194457</v>
       </c>
       <c r="C10">
-        <v>20.90202296918273</v>
+        <v>22.13178632961719</v>
       </c>
       <c r="D10">
-        <v>6.124566156814046</v>
+        <v>4.865906377694616</v>
       </c>
       <c r="E10">
-        <v>8.239326392336533</v>
+        <v>8.354856830137484</v>
       </c>
       <c r="F10">
-        <v>47.2496152894965</v>
+        <v>37.30646897280223</v>
       </c>
       <c r="G10">
-        <v>2.081153523925113</v>
+        <v>3.825807783791498</v>
       </c>
       <c r="H10">
-        <v>1.691660565968965</v>
+        <v>1.613052563852245</v>
       </c>
       <c r="I10">
-        <v>2.575863218630757</v>
+        <v>2.668800499178766</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>31.44125472559312</v>
+        <v>23.44703572101318</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>18.12473933224131</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>16.94801362604644</v>
       </c>
       <c r="N10">
-        <v>7.444441391526737</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>15.16783175703944</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>7.573920902358458</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>15.22192646597061</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.10138241735403</v>
+        <v>27.11045794752038</v>
       </c>
       <c r="C11">
-        <v>22.18345877547846</v>
+        <v>22.74996266540005</v>
       </c>
       <c r="D11">
-        <v>5.560606424681685</v>
+        <v>4.773411342608459</v>
       </c>
       <c r="E11">
-        <v>8.937868712575442</v>
+        <v>8.988011695920802</v>
       </c>
       <c r="F11">
-        <v>44.19402644435681</v>
+        <v>33.24468147326157</v>
       </c>
       <c r="G11">
-        <v>2.077650721376836</v>
+        <v>7.774690662602485</v>
       </c>
       <c r="H11">
-        <v>2.699176138372251</v>
+        <v>2.681226678428505</v>
       </c>
       <c r="I11">
-        <v>2.700939094616134</v>
+        <v>2.744450706909412</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>28.59958932772933</v>
+        <v>20.24817238148174</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>15.6823089820316</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>14.60153492275195</v>
       </c>
       <c r="N11">
-        <v>6.689449673302743</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>14.95336178582244</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>6.754855164218814</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>14.98231761968193</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.56529261507893</v>
+        <v>27.57506208686759</v>
       </c>
       <c r="C12">
-        <v>22.86453134666711</v>
+        <v>23.05366345665444</v>
       </c>
       <c r="D12">
-        <v>5.204069239316129</v>
+        <v>4.900336949265111</v>
       </c>
       <c r="E12">
-        <v>9.651354222617417</v>
+        <v>9.658928147704806</v>
       </c>
       <c r="F12">
-        <v>41.18684049846876</v>
+        <v>30.20760378604231</v>
       </c>
       <c r="G12">
-        <v>2.077047214456771</v>
+        <v>9.681864171083788</v>
       </c>
       <c r="H12">
-        <v>4.10822161055332</v>
+        <v>4.099420022209792</v>
       </c>
       <c r="I12">
-        <v>2.715212364318386</v>
+        <v>2.750762667251443</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>26.07888612542033</v>
+        <v>18.0522762300739</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>14.09452963108346</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>12.89614385826222</v>
       </c>
       <c r="N12">
-        <v>6.067781417875097</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>14.56486985194961</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>6.107639107131103</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>14.57746305718076</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.60624515313613</v>
+        <v>27.6289391693244</v>
       </c>
       <c r="C13">
-        <v>23.17541754028213</v>
+        <v>23.26851391171731</v>
       </c>
       <c r="D13">
-        <v>4.982827128718919</v>
+        <v>5.057837020818941</v>
       </c>
       <c r="E13">
-        <v>10.38451307551875</v>
+        <v>10.41331333163691</v>
       </c>
       <c r="F13">
-        <v>37.80112328343039</v>
+        <v>27.92566181450511</v>
       </c>
       <c r="G13">
-        <v>2.078720535859672</v>
+        <v>9.274821904910393</v>
       </c>
       <c r="H13">
-        <v>5.556723002448831</v>
+        <v>5.541743962318249</v>
       </c>
       <c r="I13">
-        <v>2.648728992081651</v>
+        <v>2.711919980793243</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>23.49748865264268</v>
+        <v>16.54944883274619</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>13.06851715945357</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>11.6490791001036</v>
       </c>
       <c r="N13">
-        <v>5.528630295727561</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>14.01064796086756</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>5.576451445764159</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>14.0151513506721</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.44513615246885</v>
+        <v>27.48153633378902</v>
       </c>
       <c r="C14">
-        <v>23.23829876644315</v>
+        <v>23.38386957084215</v>
       </c>
       <c r="D14">
-        <v>4.913868519680937</v>
+        <v>5.152747088813416</v>
       </c>
       <c r="E14">
-        <v>10.92187303243172</v>
+        <v>10.99875176867523</v>
       </c>
       <c r="F14">
-        <v>35.19519466724705</v>
+        <v>26.60149377360194</v>
       </c>
       <c r="G14">
-        <v>2.080909415848579</v>
+        <v>7.977901688928742</v>
       </c>
       <c r="H14">
-        <v>6.581309892809889</v>
+        <v>6.559225915075408</v>
       </c>
       <c r="I14">
-        <v>2.567743589038417</v>
+        <v>2.665297603663596</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>21.64677597072716</v>
+        <v>15.76386592048098</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>12.55770445954318</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>10.95541495734243</v>
       </c>
       <c r="N14">
-        <v>5.219051064590346</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>13.54131571517209</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>5.28516297848067</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>13.54282616084675</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.3141589581244</v>
+        <v>27.35633977279025</v>
       </c>
       <c r="C15">
-        <v>23.18198141840077</v>
+        <v>23.3925703434449</v>
       </c>
       <c r="D15">
-        <v>4.910789224397396</v>
+        <v>5.157233156015256</v>
       </c>
       <c r="E15">
-        <v>11.03244584933242</v>
+        <v>11.13992057080477</v>
       </c>
       <c r="F15">
-        <v>34.43788894026643</v>
+        <v>26.3778736884282</v>
       </c>
       <c r="G15">
-        <v>2.081973588972873</v>
+        <v>7.234422936692956</v>
       </c>
       <c r="H15">
-        <v>6.821754751784948</v>
+        <v>6.795992931659923</v>
       </c>
       <c r="I15">
-        <v>2.531336385500839</v>
+        <v>2.645120464736314</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>21.15514509045144</v>
+        <v>15.6591527604994</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>12.49888194339846</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>10.84556418557618</v>
       </c>
       <c r="N15">
-        <v>5.151389312686395</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>13.39179401241317</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>5.226966874483993</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>13.39357176235748</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.42258734496357</v>
+        <v>26.48792743027559</v>
       </c>
       <c r="C16">
-        <v>22.4003955473397</v>
+        <v>23.06387433375997</v>
       </c>
       <c r="D16">
-        <v>4.936871480965069</v>
+        <v>4.967836493353889</v>
       </c>
       <c r="E16">
-        <v>10.69091028441769</v>
+        <v>10.97219481179629</v>
       </c>
       <c r="F16">
-        <v>33.73625331697435</v>
+        <v>27.4463446504794</v>
       </c>
       <c r="G16">
-        <v>2.087064976839573</v>
+        <v>3.872355242776086</v>
       </c>
       <c r="H16">
-        <v>6.647351366938292</v>
+        <v>6.598158002813184</v>
       </c>
       <c r="I16">
-        <v>2.667971639014036</v>
+        <v>2.535739005690335</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>21.03114544149336</v>
+        <v>16.53805972204965</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>13.17218003233543</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>11.45295099950144</v>
       </c>
       <c r="N16">
-        <v>5.121208990511244</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>13.07816930615949</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>5.243431260219015</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>13.08808048670642</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.8118842996874</v>
+        <v>25.8877012093333</v>
       </c>
       <c r="C17">
-        <v>21.75069018404287</v>
+        <v>22.67550782081427</v>
       </c>
       <c r="D17">
-        <v>4.978367080220631</v>
+        <v>4.83326091477957</v>
       </c>
       <c r="E17">
-        <v>10.11064452477491</v>
+        <v>10.48169787154658</v>
       </c>
       <c r="F17">
-        <v>34.6347467235292</v>
+        <v>28.79904783501964</v>
       </c>
       <c r="G17">
-        <v>2.089829317635581</v>
+        <v>2.771252709176772</v>
       </c>
       <c r="H17">
-        <v>5.945946317702687</v>
+        <v>5.876690693441114</v>
       </c>
       <c r="I17">
-        <v>2.770213294678949</v>
+        <v>2.563727085041172</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>21.92302085754103</v>
+        <v>17.56604777964786</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>13.94515519772911</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>12.21217485748974</v>
       </c>
       <c r="N17">
-        <v>5.249335649289564</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>13.09449153348253</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>5.398554864918146</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>13.11051291396366</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.38776581482211</v>
+        <v>25.46504706064209</v>
       </c>
       <c r="C18">
-        <v>21.13445946579951</v>
+        <v>22.27038117232358</v>
       </c>
       <c r="D18">
-        <v>5.114094511564544</v>
+        <v>4.739179476611549</v>
       </c>
       <c r="E18">
-        <v>9.32748251572464</v>
+        <v>9.737234652481337</v>
       </c>
       <c r="F18">
-        <v>37.10023972662444</v>
+        <v>30.92177072853969</v>
       </c>
       <c r="G18">
-        <v>2.09074744152224</v>
+        <v>2.47439685177873</v>
       </c>
       <c r="H18">
-        <v>4.739891107160762</v>
+        <v>4.648115950481206</v>
       </c>
       <c r="I18">
-        <v>2.791668316082138</v>
+        <v>2.573889699078864</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>23.89332681509401</v>
+        <v>19.09517737188107</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>15.07602672454324</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>13.38572615452435</v>
       </c>
       <c r="N18">
-        <v>5.605274808156324</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>13.39605324285416</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>5.771420179542667</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>13.42175427755979</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.1527409730623</v>
+        <v>25.22407330930661</v>
       </c>
       <c r="C19">
-        <v>20.64274848160304</v>
+        <v>21.95861758234878</v>
       </c>
       <c r="D19">
-        <v>5.403535354281625</v>
+        <v>4.737477364107582</v>
       </c>
       <c r="E19">
-        <v>8.589121082034296</v>
+        <v>8.977531101830888</v>
       </c>
       <c r="F19">
-        <v>40.43228157943771</v>
+        <v>33.46445459778673</v>
       </c>
       <c r="G19">
-        <v>2.090018185822077</v>
+        <v>2.336429218949208</v>
       </c>
       <c r="H19">
-        <v>3.32284506031721</v>
+        <v>3.202104063321368</v>
       </c>
       <c r="I19">
-        <v>2.761601790551287</v>
+        <v>2.557590390477142</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>26.48523418182817</v>
+        <v>20.91895507326609</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>16.41661997592324</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>14.80233060722442</v>
       </c>
       <c r="N19">
-        <v>6.206323065956088</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>13.89889474214676</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>6.380615495928513</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>13.93727865762072</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.47217888474617</v>
+        <v>25.51435759891992</v>
       </c>
       <c r="C20">
-        <v>20.48240409889038</v>
+        <v>21.90360130228543</v>
       </c>
       <c r="D20">
-        <v>6.067805433800868</v>
+        <v>4.887044136776822</v>
       </c>
       <c r="E20">
-        <v>8.092154694920129</v>
+        <v>8.288597195351654</v>
       </c>
       <c r="F20">
-        <v>46.24615598022491</v>
+        <v>37.29678428127285</v>
       </c>
       <c r="G20">
-        <v>2.084610916819268</v>
+        <v>2.514013915703284</v>
       </c>
       <c r="H20">
-        <v>1.822090099338214</v>
+        <v>1.698430720136676</v>
       </c>
       <c r="I20">
-        <v>2.550193228339169</v>
+        <v>2.609259885536558</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>30.86143370838271</v>
+        <v>23.58241083724523</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>18.30503606184416</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>16.95506264993196</v>
       </c>
       <c r="N20">
-        <v>7.367665693143397</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>14.9234216439009</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>7.526155310420521</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>14.98037092177548</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.0521611505966</v>
+        <v>27.0361079410278</v>
       </c>
       <c r="C21">
-        <v>21.77353052048538</v>
+        <v>22.32536466122604</v>
       </c>
       <c r="D21">
-        <v>6.210211761909465</v>
+        <v>4.791342155059567</v>
       </c>
       <c r="E21">
-        <v>8.468525987402609</v>
+        <v>8.377074196036775</v>
       </c>
       <c r="F21">
-        <v>49.00122661402931</v>
+        <v>36.00836379619889</v>
       </c>
       <c r="G21">
-        <v>2.074584265315884</v>
+        <v>9.429479562129186</v>
       </c>
       <c r="H21">
-        <v>1.717103029127703</v>
+        <v>1.693514785574695</v>
       </c>
       <c r="I21">
-        <v>2.827271094283447</v>
+        <v>2.815004548772585</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>32.40618549231302</v>
+        <v>22.30042379167082</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>17.14207374928077</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>16.23984485336833</v>
       </c>
       <c r="N21">
-        <v>7.743046865374574</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>15.73803119737834</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>7.790686656366049</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>15.77218840796936</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.05189977680875</v>
+        <v>27.99686874156512</v>
       </c>
       <c r="C22">
-        <v>22.59619495693781</v>
+        <v>22.54833502988564</v>
       </c>
       <c r="D22">
-        <v>6.283052550188691</v>
+        <v>4.786843215566019</v>
       </c>
       <c r="E22">
-        <v>8.729325111065862</v>
+        <v>8.463732425037968</v>
       </c>
       <c r="F22">
-        <v>50.62977154199076</v>
+        <v>34.9315781064182</v>
       </c>
       <c r="G22">
-        <v>2.068171547343336</v>
+        <v>14.49503912328727</v>
       </c>
       <c r="H22">
-        <v>1.968378356490978</v>
+        <v>1.852492352898621</v>
       </c>
       <c r="I22">
-        <v>3.053533924370313</v>
+        <v>2.940370955054926</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>33.29792485193492</v>
+        <v>21.31033383776273</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>16.29364983567675</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>15.64371251028255</v>
       </c>
       <c r="N22">
-        <v>7.928497630233483</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>16.21632036591312</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>7.901994826893485</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>16.23023536904505</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.52343224589147</v>
+        <v>27.49009465270187</v>
       </c>
       <c r="C23">
-        <v>22.13919550605657</v>
+        <v>22.51218625524219</v>
       </c>
       <c r="D23">
-        <v>6.261730748068651</v>
+        <v>4.788623108449799</v>
       </c>
       <c r="E23">
-        <v>8.591932349071618</v>
+        <v>8.429156167868269</v>
       </c>
       <c r="F23">
-        <v>49.87417688307526</v>
+        <v>35.95407188756701</v>
       </c>
       <c r="G23">
-        <v>2.071532774786154</v>
+        <v>10.96921179123966</v>
       </c>
       <c r="H23">
-        <v>1.836616160801588</v>
+        <v>1.773832594766201</v>
       </c>
       <c r="I23">
-        <v>2.92972125781043</v>
+        <v>2.872906651742936</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>32.9152198240454</v>
+        <v>22.13732199124033</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>16.95810892524001</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>16.19817339488233</v>
       </c>
       <c r="N23">
-        <v>7.829574589784008</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>15.96144144062844</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>7.850893187828188</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>15.99074538307604</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.43559876248953</v>
+        <v>25.47674119889822</v>
       </c>
       <c r="C24">
-        <v>20.38623434839286</v>
+        <v>21.8349754502482</v>
       </c>
       <c r="D24">
-        <v>6.148936498792393</v>
+        <v>4.916180200171563</v>
       </c>
       <c r="E24">
-        <v>8.065006667127218</v>
+        <v>8.249296654190763</v>
       </c>
       <c r="F24">
-        <v>46.75702334207687</v>
+        <v>37.71409429531034</v>
       </c>
       <c r="G24">
-        <v>2.084482565560745</v>
+        <v>2.454554821429845</v>
       </c>
       <c r="H24">
-        <v>1.79829701308899</v>
+        <v>1.675882113110377</v>
       </c>
       <c r="I24">
-        <v>2.525032692679666</v>
+        <v>2.600896819184607</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>31.28527461232215</v>
+        <v>23.90811796714596</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>18.54872533404771</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>17.20244524749492</v>
       </c>
       <c r="N24">
-        <v>7.447078205797436</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>14.96665377808739</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>7.607136251404971</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>15.0253015981432</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.99963226184537</v>
+        <v>23.09664606416646</v>
       </c>
       <c r="C25">
-        <v>18.37373478339771</v>
+        <v>19.84321412545868</v>
       </c>
       <c r="D25">
-        <v>6.019571916172223</v>
+        <v>4.881872342185548</v>
       </c>
       <c r="E25">
-        <v>7.485268760923187</v>
+        <v>7.882321543149288</v>
       </c>
       <c r="F25">
-        <v>43.22854890386218</v>
+        <v>35.47612046652923</v>
       </c>
       <c r="G25">
-        <v>2.098791286324612</v>
+        <v>3.407164225976416</v>
       </c>
       <c r="H25">
-        <v>2.374534743363995</v>
+        <v>2.114801657777123</v>
       </c>
       <c r="I25">
-        <v>3.059067452029721</v>
+        <v>2.774542033241624</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>29.45995448988352</v>
+        <v>23.1638181408642</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>18.3390583774556</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>16.230873722352</v>
       </c>
       <c r="N25">
-        <v>7.016808584973928</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>13.82857645689172</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>7.231689050417417</v>
       </c>
       <c r="Q25">
+        <v>13.86394766441088</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
